--- a/biology/Médecine/1229_en_santé_et_médecine/1229_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1229_en_santé_et_médecine/1229_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1229_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1229_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1229 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1229_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1229_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,22 +523,24 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le concile de Toulouse décrète que tout chrétien qui se fera soigner par un Juif sera excommunié[2].
-En Chine, une officine relevant de la Pharmacie impériale, service public d'État, figure sur un plan gravé dans la pierre de la ville de Pingjiang, aujourd'hui Suzhou[3].
-Fondation de l'« université des maîtres et des écoliers » de Toulouse, où la médecine est enseignée à la faculté des arts[4].
-Fondation de l'hôpital de Doué, en Anjou[5].
-Première mention de l'hôtel-Dieu de Clermont-Ferrand[6].
-Première mention de l'hospice Saint-Gilles, à Namur, sous le nom d'hospitale namucense (« hôpital de Namur[7] »).
-Première mention de l'hôpital St. Margaret à High Wycombe, dans le comté de Buckingham[8].
-Une léproserie est mentionnée à Cotes, près de Rockingham, dans le Northamptonshire[9].
-Fondation à Franconville en vallée de Montmorency, dans l'actuel département du Val-d'Oise, d'une léproserie qui deviendra hôtel-Dieu en 1585[10].
-Fondation d'un léproserie à Jaleyrac en Auvergne, dans l'actuel département du Cantal[11].
-Une léproserie est mentionnée à Feuguerolles, en Normandie, dans l'actuel département du Calvados[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le concile de Toulouse décrète que tout chrétien qui se fera soigner par un Juif sera excommunié.
+En Chine, une officine relevant de la Pharmacie impériale, service public d'État, figure sur un plan gravé dans la pierre de la ville de Pingjiang, aujourd'hui Suzhou.
+Fondation de l'« université des maîtres et des écoliers » de Toulouse, où la médecine est enseignée à la faculté des arts.
+Fondation de l'hôpital de Doué, en Anjou.
+Première mention de l'hôtel-Dieu de Clermont-Ferrand.
+Première mention de l'hospice Saint-Gilles, à Namur, sous le nom d'hospitale namucense (« hôpital de Namur »).
+Première mention de l'hôpital St. Margaret à High Wycombe, dans le comté de Buckingham.
+Une léproserie est mentionnée à Cotes, près de Rockingham, dans le Northamptonshire.
+Fondation à Franconville en vallée de Montmorency, dans l'actuel département du Val-d'Oise, d'une léproserie qui deviendra hôtel-Dieu en 1585.
+Fondation d'un léproserie à Jaleyrac en Auvergne, dans l'actuel département du Cantal.
+Une léproserie est mentionnée à Feuguerolles, en Normandie, dans l'actuel département du Calvados.
 1228-1229
-À Divrigi, dans la région de Sivas en Anatolie, construction du Darush-shifa (« maison de la guérison »), hôpital attenant à la grande mosquée, fondé par Turan Melik, fille de Behram Shah et femme d'Hüsameddin Ahmed, fils de Suleyman[13].
-Fondation de l'hôpital de la Biloque, à Gand[14].</t>
+À Divrigi, dans la région de Sivas en Anatolie, construction du Darush-shifa (« maison de la guérison »), hôpital attenant à la grande mosquée, fondé par Turan Melik, fille de Behram Shah et femme d'Hüsameddin Ahmed, fils de Suleyman.
+Fondation de l'hôpital de la Biloque, à Gand.</t>
         </is>
       </c>
     </row>
